--- a/data/bris-animal-words.xlsx
+++ b/data/bris-animal-words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b289ec67261cdd08/Documents/DECO1800/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svass\OneDrive\Documents\DECO1800\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA3A035-48BD-4356-A143-0859BED4BB81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B31D6F05-CAD7-4E8B-A460-50FA4C01C9F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bris-animal-words" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>English</t>
   </si>
@@ -251,12 +251,21 @@
   </si>
   <si>
     <t>https://www.google.com.au/search?q=wallaby+cartoon+image&amp;lr=&amp;hl=en&amp;tbs=sur:f&amp;source=lnms&amp;tbm=isch&amp;sa=X&amp;ved=0ahUKEwiqvKO-yObdAhVKu7wKHWoSBEEQ_AUIDigB&amp;biw=1151&amp;bih=501#imgrc=H-uPiIlW5gv-PM:</t>
+  </si>
+  <si>
+    <t>Links to resources</t>
+  </si>
+  <si>
+    <t>https://www.welcometocountry.org/aboriginal-dreamtime-stories/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dreamtime stories </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1090,11 +1099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,6 +1452,19 @@
         <v>76</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
